--- a/samples/direct-mode/excels/subsheets/道具表1.xlsx
+++ b/samples/direct-mode/excels/subsheets/道具表1.xlsx
@@ -30,12 +30,6 @@
     <t>编号</t>
   </si>
   <si>
-    <t>名称</t>
-  </si>
-  <si>
-    <t>描述</t>
-  </si>
-  <si>
     <t>品质</t>
   </si>
   <si>
@@ -152,6 +146,14 @@
   </si>
   <si>
     <t>../items</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称:locale</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述:locale</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -661,7 +663,7 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -683,28 +685,28 @@
         <v>100</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D1" s="2">
         <v>0</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>35</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -719,57 +721,57 @@
         <v>2</v>
       </c>
       <c r="B3" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>5</v>
-      </c>
       <c r="E3" s="11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="D4" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>9</v>
-      </c>
       <c r="E4" s="14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F4" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="14" t="s">
         <v>30</v>
-      </c>
-      <c r="G4" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="I4" s="14" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -789,31 +791,31 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="15" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H6" s="15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I6" s="15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -821,16 +823,16 @@
         <v>1</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D7" s="5">
         <v>1</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F7" s="2">
         <v>1</v>
@@ -850,10 +852,10 @@
         <v>2</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D8" s="2">
         <v>2</v>
@@ -873,7 +875,7 @@
         <v>3</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C9" s="1"/>
     </row>
